--- a/PCB - Rack/Project Outputs for G2_LV/G2_LV.xlsx
+++ b/PCB - Rack/Project Outputs for G2_LV/G2_LV.xlsx
@@ -3,21 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkilani\Documents\GitHub\G-2\PCB - Rack\Project Outputs for G2_LV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4830"/>
   </bookViews>
   <sheets>
     <sheet name="G2_LV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">G2_LV!$A$1:$E$66</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">G2_LV!$1:$1</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,6 +48,15 @@
     <t/>
   </si>
   <si>
+    <t>D10_LV2, D10_LV4</t>
+  </si>
+  <si>
+    <t>DO-214AB</t>
+  </si>
+  <si>
+    <t>ES3B</t>
+  </si>
+  <si>
     <t>D5, D6</t>
   </si>
   <si>
@@ -111,15 +111,6 @@
     <t>BAV20WS</t>
   </si>
   <si>
-    <t>D10_LV2, D10_LV4</t>
-  </si>
-  <si>
-    <t>DO-214AB</t>
-  </si>
-  <si>
-    <t>ES3B</t>
-  </si>
-  <si>
     <t>DTVS</t>
   </si>
   <si>
@@ -216,6 +207,15 @@
     <t>BSS131</t>
   </si>
   <si>
+    <t>R9_LV1, R9_LV3</t>
+  </si>
+  <si>
+    <t>J1-0603</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>RESET1</t>
   </si>
   <si>
@@ -285,15 +285,6 @@
     <t>CSTCE16M0V53-R0</t>
   </si>
   <si>
-    <t>R9_LV1, R9_LV3</t>
-  </si>
-  <si>
-    <t>J1-0603</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>AC1, AC2, AC3, AC4, AC5, AC6, C2, C3, C8_LV2, C8_LV4, C28_LV1, C28_LV3</t>
   </si>
   <si>
@@ -306,6 +297,12 @@
     <t>0.1uF</t>
   </si>
   <si>
+    <t>RLED1</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
     <t>AR2</t>
   </si>
   <si>
@@ -318,12 +315,6 @@
     <t>1R</t>
   </si>
   <si>
-    <t>RLED1</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>C12_LV2, C12_LV4</t>
   </si>
   <si>
@@ -459,24 +450,24 @@
     <t>47uF</t>
   </si>
   <si>
+    <t>Rsense1_LV1, Rsense1_LV3, Rsense2_LV2, Rsense2_LV4</t>
+  </si>
+  <si>
+    <t>R6432</t>
+  </si>
+  <si>
+    <t>MCS3264R050FER</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
     <t>R1, R2</t>
   </si>
   <si>
     <t>50R</t>
   </si>
   <si>
-    <t>Rsense1_LV1, Rsense1_LV3, Rsense2_LV2, Rsense2_LV4</t>
-  </si>
-  <si>
-    <t>R6432</t>
-  </si>
-  <si>
-    <t>MCS3264R050FER</t>
-  </si>
-  <si>
-    <t>50m</t>
-  </si>
-  <si>
     <t>R15_LV1, R15_LV3</t>
   </si>
   <si>
@@ -489,79 +480,79 @@
     <t>82k</t>
   </si>
   <si>
+    <t>R5_LV2, R5_LV4, R10_LV1, R10_LV3</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
     <t>R8_LV2, R8_LV4, R13_LV1, R13_LV3</t>
   </si>
   <si>
     <t>100R</t>
   </si>
   <si>
-    <t>R5_LV2, R5_LV4, R10_LV1, R10_LV3</t>
-  </si>
-  <si>
-    <t>100k</t>
+    <t>C3_a_LV1, C3_a_LV3, C3_b_LV1, C3_b_LV3, C4, C8, C9_LV2, C9_LV4, C10_LV2, C10_LV4, C12, C16</t>
+  </si>
+  <si>
+    <t>C3225X5R0J107M250AC</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C5, C6, C7, C9, C10, C11, C13, C14, C15, C17, C18, C19</t>
+  </si>
+  <si>
+    <t>CL32A107MPVNNNE</t>
+  </si>
+  <si>
+    <t>Rtc2_LV2, Rtc2_LV4</t>
+  </si>
+  <si>
+    <t>169k</t>
+  </si>
+  <si>
+    <t>Rfb2_LV2, Rfb2_LV4</t>
+  </si>
+  <si>
+    <t>200k</t>
+  </si>
+  <si>
+    <t>C13_LV2, C13_LV4</t>
+  </si>
+  <si>
+    <t>08055A221JAT2A</t>
+  </si>
+  <si>
+    <t>470p</t>
+  </si>
+  <si>
+    <t>C26_LV1, C26_LV3</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>C1005C0G1H471J050BA</t>
+  </si>
+  <si>
+    <t>R6_LV2, R6_LV4, R11_LV1, R11_LV3</t>
+  </si>
+  <si>
+    <t>500k</t>
+  </si>
+  <si>
+    <t>R_LED1, R_LED2, R_LED3, R_LED4, R_LED5, R_LED6, RLED2</t>
+  </si>
+  <si>
+    <t>500R</t>
   </si>
   <si>
     <t>C23_LV1, C23_LV3</t>
   </si>
   <si>
-    <t>08055A221JAT2A</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C5, C6, C7, C9, C10, C11, C13, C14, C15, C17, C18, C19</t>
-  </si>
-  <si>
-    <t>CL32A107MPVNNNE</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C3_a_LV1, C3_a_LV3, C3_b_LV1, C3_b_LV3, C4, C8, C9_LV2, C9_LV4, C10_LV2, C10_LV4, C12, C16</t>
-  </si>
-  <si>
-    <t>C3225X5R0J107M250AC</t>
-  </si>
-  <si>
-    <t>Rtc2_LV2, Rtc2_LV4</t>
-  </si>
-  <si>
-    <t>169k</t>
-  </si>
-  <si>
-    <t>Rfb2_LV2, Rfb2_LV4</t>
-  </si>
-  <si>
-    <t>200k</t>
-  </si>
-  <si>
-    <t>C13_LV2, C13_LV4</t>
-  </si>
-  <si>
-    <t>470p</t>
-  </si>
-  <si>
-    <t>C26_LV1, C26_LV3</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>C1005C0G1H471J050BA</t>
-  </si>
-  <si>
-    <t>R_LED1, R_LED2, R_LED3, R_LED4, R_LED5, R_LED6, RLED2</t>
-  </si>
-  <si>
-    <t>500R</t>
-  </si>
-  <si>
-    <t>R6_LV2, R6_LV4, R11_LV1, R11_LV3</t>
-  </si>
-  <si>
-    <t>500k</t>
+    <t>680pF</t>
   </si>
   <si>
     <t>C24_LV1, C24_LV3</t>
@@ -639,22 +630,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,22 +919,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -969,7 +944,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -986,7 +961,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1003,14 +978,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -1020,14 +995,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1037,7 +1012,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1054,14 +1029,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1071,7 +1046,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1088,7 +1063,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1105,7 +1080,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1122,7 +1097,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1139,7 +1114,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1156,7 +1131,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1173,7 +1148,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1190,7 +1165,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1207,7 +1182,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1224,7 +1199,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1241,7 +1216,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1258,7 +1233,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1275,7 +1250,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1292,31 +1267,31 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3">
         <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>66</v>
@@ -1326,7 +1301,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1343,7 +1318,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1360,14 +1335,14 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>75</v>
@@ -1377,14 +1352,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>78</v>
@@ -1394,14 +1369,14 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>81</v>
@@ -1411,14 +1386,14 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>84</v>
@@ -1428,24 +1403,24 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1462,11 +1437,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -1479,14 +1454,14 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
@@ -1496,14 +1471,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
@@ -1513,7 +1488,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1530,7 +1505,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1547,7 +1522,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1564,7 +1539,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1581,7 +1556,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1598,11 +1573,11 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3">
         <v>2</v>
@@ -1615,7 +1590,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1632,11 +1607,11 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3">
         <v>2</v>
@@ -1649,11 +1624,11 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1665,12 +1640,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C43" s="3">
         <v>6</v>
@@ -1683,7 +1658,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1700,7 +1675,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1717,11 +1692,11 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C46" s="3">
         <v>4</v>
@@ -1734,7 +1709,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1751,11 +1726,11 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3">
         <v>4</v>
@@ -1768,7 +1743,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1785,45 +1760,45 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C50" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="C51" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3">
         <v>2</v>
@@ -1836,11 +1811,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -1853,11 +1828,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="C54" s="3">
         <v>4</v>
@@ -1870,11 +1845,11 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
@@ -1887,14 +1862,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>158</v>
@@ -1903,8 +1878,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -1917,100 +1892,100 @@
         <v>161</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="B58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="3">
-        <v>12</v>
-      </c>
-      <c r="D58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="B59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="B60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>171</v>
+      <c r="A62" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C63" s="3">
         <v>7</v>
@@ -2023,28 +1998,28 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C64" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" s="3">
         <v>2</v>
@@ -2057,11 +2032,11 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>

--- a/PCB - Rack/Project Outputs for G2_LV/G2_LV.xlsx
+++ b/PCB - Rack/Project Outputs for G2_LV/G2_LV.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4830"/>
   </bookViews>
   <sheets>
     <sheet name="G2_LV" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="187">
   <si>
     <t>Designator</t>
   </si>
@@ -36,7 +36,25 @@
     <t>Value</t>
   </si>
   <si>
-    <t>D1, D2, D3, D4</t>
+    <t>B5, B6, B7, B8</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SMB-403A</t>
+  </si>
+  <si>
+    <t>MBRS130LT3G</t>
+  </si>
+  <si>
+    <t>D11, D12, D13, D14</t>
   </si>
   <si>
     <t>LEDGREEN</t>
@@ -45,10 +63,34 @@
     <t>550-0207F</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>D10_LV2, D10_LV4</t>
+    <t>D2_A, D2_D</t>
+  </si>
+  <si>
+    <t>DO-214AC</t>
+  </si>
+  <si>
+    <t>SMAJ30A</t>
+  </si>
+  <si>
+    <t>D3_A, D3_D</t>
+  </si>
+  <si>
+    <t>PDS1040L</t>
+  </si>
+  <si>
+    <t>PDS760-13</t>
+  </si>
+  <si>
+    <t>D4_A, D4_D, D8_B, D8_C</t>
+  </si>
+  <si>
+    <t>SOD123F</t>
+  </si>
+  <si>
+    <t>BZT52H-B5V6</t>
+  </si>
+  <si>
+    <t>D5_A, D5_D</t>
   </si>
   <si>
     <t>DO-214AB</t>
@@ -57,7 +99,22 @@
     <t>ES3B</t>
   </si>
   <si>
-    <t>D5, D6</t>
+    <t>D6_B, D6_C</t>
+  </si>
+  <si>
+    <t>SOD-323</t>
+  </si>
+  <si>
+    <t>BAV20WS</t>
+  </si>
+  <si>
+    <t>D7_B, D7_C</t>
+  </si>
+  <si>
+    <t>SBR15U50SP5-13</t>
+  </si>
+  <si>
+    <t>D9, D10</t>
   </si>
   <si>
     <t>LEDYELLOW</t>
@@ -66,52 +123,7 @@
     <t>550-0307F</t>
   </si>
   <si>
-    <t>D5V</t>
-  </si>
-  <si>
-    <t>SMB-403A</t>
-  </si>
-  <si>
-    <t>MBRS130LT3G</t>
-  </si>
-  <si>
-    <t>D6_LV2, D6_LV4, D12_LV1, D12_LV3</t>
-  </si>
-  <si>
-    <t>SOD123F</t>
-  </si>
-  <si>
-    <t>BZT52H-B5V6</t>
-  </si>
-  <si>
-    <t>D7_LV2, D7_LV4, D11_LV1, D11_LV3</t>
-  </si>
-  <si>
-    <t>PDS1040L</t>
-  </si>
-  <si>
-    <t>PDS760-13</t>
-  </si>
-  <si>
-    <t>D8_LV2, D8_LV4</t>
-  </si>
-  <si>
-    <t>DO-214AC</t>
-  </si>
-  <si>
-    <t>SMAJ30A</t>
-  </si>
-  <si>
-    <t>D9_LV1, D9_LV3</t>
-  </si>
-  <si>
-    <t>SOD-323</t>
-  </si>
-  <si>
-    <t>BAV20WS</t>
-  </si>
-  <si>
-    <t>DTVS</t>
+    <t>DTVS1</t>
   </si>
   <si>
     <t>DO-214AA</t>
@@ -120,13 +132,16 @@
     <t>SMBJ10CA</t>
   </si>
   <si>
-    <t>DTVS1</t>
-  </si>
-  <si>
-    <t>SMBJ48A</t>
-  </si>
-  <si>
-    <t>F1_LV1, F1_LV3, F2_LV2, F2_LV4, F3</t>
+    <t>DTVS2</t>
+  </si>
+  <si>
+    <t>SMBJ</t>
+  </si>
+  <si>
+    <t>SMBJ36A</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
   <si>
     <t>MF-MSMF1</t>
@@ -135,6 +150,12 @@
     <t>MINISMDC050F-2</t>
   </si>
   <si>
+    <t>F2_A, F2_D, F3_B, F3_C</t>
+  </si>
+  <si>
+    <t>MC33192</t>
+  </si>
+  <si>
     <t>ICSP1</t>
   </si>
   <si>
@@ -153,6 +174,15 @@
     <t>0903 164 6921</t>
   </si>
   <si>
+    <t>L5, L6, L7, L8</t>
+  </si>
+  <si>
+    <t>ACMV_TDK</t>
+  </si>
+  <si>
+    <t>ACM90V-701-2PL</t>
+  </si>
+  <si>
     <t>LDO1</t>
   </si>
   <si>
@@ -165,22 +195,22 @@
     <t>LED1</t>
   </si>
   <si>
+    <t>CHIP-LED0805</t>
+  </si>
+  <si>
+    <t>KPT-2012SGC</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
     <t>LEDRED</t>
   </si>
   <si>
     <t>550-0407F</t>
   </si>
   <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>CHIP-LED0805</t>
-  </si>
-  <si>
-    <t>KPT-2012SGC</t>
-  </si>
-  <si>
-    <t>LT2_LV2, LT2_LV4</t>
+    <t>LT1_A, LT1_D</t>
   </si>
   <si>
     <t>S8E</t>
@@ -189,7 +219,7 @@
     <t>LT8302ES8E#PBF</t>
   </si>
   <si>
-    <t>Q1_LV1, Q1_LV3</t>
+    <t>Q1_B, Q1_C</t>
   </si>
   <si>
     <t>INF-PG-TDSON-8-1_V</t>
@@ -198,16 +228,7 @@
     <t>BSC320N20NS3 G</t>
   </si>
   <si>
-    <t>Q2_LV2, Q2_LV4, Q3_LV1, Q3_LV3</t>
-  </si>
-  <si>
-    <t>SOT-23_2</t>
-  </si>
-  <si>
-    <t>BSS131</t>
-  </si>
-  <si>
-    <t>R9_LV1, R9_LV3</t>
+    <t>R13_B, R13_C</t>
   </si>
   <si>
     <t>J1-0603</t>
@@ -222,7 +243,22 @@
     <t>1-1825027-4</t>
   </si>
   <si>
-    <t>T1_LV1, T1_LV3</t>
+    <t>SSR1, SSR2</t>
+  </si>
+  <si>
+    <t>LCA701S</t>
+  </si>
+  <si>
+    <t>T1_A, T1_D</t>
+  </si>
+  <si>
+    <t>EP13</t>
+  </si>
+  <si>
+    <t>750311457</t>
+  </si>
+  <si>
+    <t>T2_B, T2_C</t>
   </si>
   <si>
     <t>EFD20</t>
@@ -231,16 +267,34 @@
     <t>750311597</t>
   </si>
   <si>
-    <t>T2_LV2, T2_LV4</t>
-  </si>
-  <si>
-    <t>EP13</t>
-  </si>
-  <si>
-    <t>750311457</t>
-  </si>
-  <si>
-    <t>U1, U2</t>
+    <t>U2_A, U2_D, U3_B, U3_C</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>INA138NA/250</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>32A_N</t>
+  </si>
+  <si>
+    <t>ATmega328P-AU</t>
+  </si>
+  <si>
+    <t>U4_B, U4_C</t>
+  </si>
+  <si>
+    <t>LT-MS-16-4PR_N</t>
+  </si>
+  <si>
+    <t>LT3748IMS#PBF</t>
+  </si>
+  <si>
+    <t>U5, U6</t>
   </si>
   <si>
     <t>SOICN8</t>
@@ -249,33 +303,6 @@
     <t>ADM4855ARZ</t>
   </si>
   <si>
-    <t>U2_LV2, U2_LV4, U5_LV1, U5_LV3</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>INA138NA/250</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>100A_N</t>
-  </si>
-  <si>
-    <t>ATmega2560-16AU</t>
-  </si>
-  <si>
-    <t>U4_LV1, U4_LV3</t>
-  </si>
-  <si>
-    <t>LT-MS-16-4PR_N</t>
-  </si>
-  <si>
-    <t>LT3748IMS#PBF</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -285,7 +312,7 @@
     <t>CSTCE16M0V53-R0</t>
   </si>
   <si>
-    <t>AC1, AC2, AC3, AC4, AC5, AC6, C2, C3, C8_LV2, C8_LV4, C28_LV1, C28_LV3</t>
+    <t>AC1, AC2, AC3, AC4, C3_A, C3_D, C12_B, C12_C, C25, C26</t>
   </si>
   <si>
     <t>1608[0603]</t>
@@ -297,25 +324,25 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>RLED1</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>AR2</t>
+    <t>AR2, AR6, R27, R28, R30, R32, R33, R34</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>AR1</t>
   </si>
   <si>
     <t>1M</t>
   </si>
   <si>
-    <t>R_L1, R_L2, R_L3, R_L4</t>
+    <t>R24, R25, R26, R31</t>
   </si>
   <si>
     <t>1R</t>
   </si>
   <si>
-    <t>C12_LV2, C12_LV4</t>
+    <t>C11_A, C11_D</t>
   </si>
   <si>
     <t>06033D105KAT2A</t>
@@ -324,7 +351,7 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C27_LV1, C27_LV3</t>
+    <t>C13_B, C13_C, C24_B, C24_C</t>
   </si>
   <si>
     <t>C0805</t>
@@ -333,9 +360,6 @@
     <t>MC0805F105Z500CT</t>
   </si>
   <si>
-    <t>C29_LV1, C29_LV3</t>
-  </si>
-  <si>
     <t>L1, L2, L3, L4</t>
   </si>
   <si>
@@ -348,7 +372,7 @@
     <t>1uH</t>
   </si>
   <si>
-    <t>C22_LV1, C22_LV3</t>
+    <t>C6_A, C6_D, C7_A, C7_D, C8_A, C8_D, C14_B, C14_C, C15_B, C15_C, C16_B, C16_C, C17_B, C17_C</t>
   </si>
   <si>
     <t>C1210</t>
@@ -360,13 +384,19 @@
     <t>2.2uF</t>
   </si>
   <si>
-    <t>R_pu1, R_pu2</t>
+    <t>R18, R19, R20, R21</t>
+  </si>
+  <si>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>AR4, AR5</t>
   </si>
   <si>
     <t>4.7K</t>
   </si>
   <si>
-    <t>C30, C31, C32, C33</t>
+    <t>C39, C45, C46, C47</t>
   </si>
   <si>
     <t>1812</t>
@@ -378,13 +408,19 @@
     <t>4.7nF</t>
   </si>
   <si>
-    <t>R3_LV1, R3_LV3</t>
+    <t>R15_B, R15_C</t>
   </si>
   <si>
     <t>6.04K</t>
   </si>
   <si>
-    <t>NTC</t>
+    <t>AR3, R16_B, R16_C, R29, Rref1_A, Rref1_D</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>NTC1</t>
   </si>
   <si>
     <t>NCP18XH103J03RB</t>
@@ -393,10 +429,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R4_LV1, R4_LV3, R_NTC, R_pu5, Rref2_LV2, Rref2_LV4</t>
-  </si>
-  <si>
-    <t>R16_LV1, R16_LV3</t>
+    <t>R17_B, R17_C</t>
   </si>
   <si>
     <t>C1206</t>
@@ -408,7 +441,7 @@
     <t>10m</t>
   </si>
   <si>
-    <t>C11_LV2, C11_LV4</t>
+    <t>C4_A, C4_D</t>
   </si>
   <si>
     <t>UMK325BJ106KM-T</t>
@@ -417,40 +450,25 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>R7_LV2, R7_LV4, R14_LV1, R14_LV3</t>
+    <t>R5_A, R5_D, R12_B, R12_C</t>
   </si>
   <si>
     <t>15k</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C1, C2</t>
   </si>
   <si>
     <t>PANASONIC_D</t>
   </si>
   <si>
-    <t>EMZA500ADA220MF61G</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>RADRS0, RADRS1, RADRS2, RADRS3</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>C20, C21</t>
-  </si>
-  <si>
     <t>EEE1EA470WAP</t>
   </si>
   <si>
     <t>47uF</t>
   </si>
   <si>
-    <t>Rsense1_LV1, Rsense1_LV3, Rsense2_LV2, Rsense2_LV4</t>
+    <t>R2_A, R2_D, R7_B, R7_C</t>
   </si>
   <si>
     <t>R6432</t>
@@ -462,106 +480,100 @@
     <t>50m</t>
   </si>
   <si>
-    <t>R1, R2</t>
+    <t>R10_B, R10_C, R11_B, R11_C</t>
   </si>
   <si>
     <t>50R</t>
   </si>
   <si>
-    <t>R15_LV1, R15_LV3</t>
+    <t>R22, R23</t>
+  </si>
+  <si>
+    <t>R9_B, R9_C, R14_B, R14_C</t>
   </si>
   <si>
     <t>75k</t>
   </si>
   <si>
-    <t>R12_LV1, R12_LV3</t>
-  </si>
-  <si>
-    <t>82k</t>
-  </si>
-  <si>
-    <t>R5_LV2, R5_LV4, R10_LV1, R10_LV3</t>
+    <t>R1_A, R1_D, R6_B, R6_C</t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>R8_LV2, R8_LV4, R13_LV1, R13_LV3</t>
+    <t>R4_A, R4_D</t>
   </si>
   <si>
     <t>100R</t>
   </si>
   <si>
-    <t>C3_a_LV1, C3_a_LV3, C3_b_LV1, C3_b_LV3, C4, C8, C9_LV2, C9_LV4, C10_LV2, C10_LV4, C12, C16</t>
+    <t>C27, C28, C29, C31, C32, C33, C35, C36, C37, C41, C42, C43</t>
+  </si>
+  <si>
+    <t>CL32A107MPVNNNE</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>EMVY101ARA101MKE0S</t>
+  </si>
+  <si>
+    <t>C9_A, C9_D, C10_A, C10_D, C19_B, C19_C, C20_B, C20_C, C30, C34, C38, C44</t>
   </si>
   <si>
     <t>C3225X5R0J107M250AC</t>
   </si>
   <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C5, C6, C7, C9, C10, C11, C13, C14, C15, C17, C18, C19</t>
-  </si>
-  <si>
-    <t>CL32A107MPVNNNE</t>
-  </si>
-  <si>
-    <t>Rtc2_LV2, Rtc2_LV4</t>
+    <t>Rtc1_A, Rtc1_D</t>
   </si>
   <si>
     <t>169k</t>
   </si>
   <si>
-    <t>Rfb2_LV2, Rfb2_LV4</t>
+    <t>Rfb1_A, Rfb1_D</t>
   </si>
   <si>
     <t>200k</t>
   </si>
   <si>
-    <t>C13_LV2, C13_LV4</t>
+    <t>R3_A, R3_D, R8_B, R8_C</t>
+  </si>
+  <si>
+    <t>390k</t>
+  </si>
+  <si>
+    <t>C23_B, C23_C</t>
+  </si>
+  <si>
+    <t>C1005C0G1H471J050BA</t>
+  </si>
+  <si>
+    <t>470p</t>
+  </si>
+  <si>
+    <t>C5_A, C5_D</t>
   </si>
   <si>
     <t>08055A221JAT2A</t>
   </si>
   <si>
-    <t>470p</t>
-  </si>
-  <si>
-    <t>C26_LV1, C26_LV3</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>C1005C0G1H471J050BA</t>
-  </si>
-  <si>
-    <t>R6_LV2, R6_LV4, R11_LV1, R11_LV3</t>
-  </si>
-  <si>
-    <t>500k</t>
-  </si>
-  <si>
-    <t>R_LED1, R_LED2, R_LED3, R_LED4, R_LED5, R_LED6, RLED2</t>
-  </si>
-  <si>
-    <t>500R</t>
-  </si>
-  <si>
-    <t>C23_LV1, C23_LV3</t>
+    <t>C18_B, C18_C</t>
   </si>
   <si>
     <t>680pF</t>
   </si>
   <si>
-    <t>C24_LV1, C24_LV3</t>
+    <t>C21_B, C21_C</t>
   </si>
   <si>
     <t>2000pF</t>
   </si>
   <si>
-    <t>C25_LV1, C25_LV3</t>
+    <t>C22_B, C22_C</t>
   </si>
   <si>
     <t>04025C472KAT2A</t>
@@ -573,7 +585,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,9 +712,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -730,14 +742,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -765,6 +794,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -957,545 +1003,545 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>99</v>
@@ -1509,33 +1555,33 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1543,81 +1589,81 @@
         <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="3">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>120</v>
@@ -1628,33 +1674,33 @@
         <v>121</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C42" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="3">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1665,7 +1711,7 @@
         <v>126</v>
       </c>
       <c r="C44" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>127</v>
@@ -1679,64 +1725,64 @@
         <v>129</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C45" s="3">
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="3">
-        <v>4</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="3">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>139</v>
@@ -1747,7 +1793,7 @@
         <v>140</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -1764,30 +1810,30 @@
         <v>143</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="C50" s="3">
         <v>4</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>148</v>
@@ -1798,47 +1844,47 @@
         <v>149</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C52" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C53" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C54" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>154</v>
@@ -1846,33 +1892,33 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>159</v>
@@ -1883,16 +1929,16 @@
         <v>160</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C57" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,50 +1946,50 @@
         <v>162</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C58" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,64 +1997,64 @@
         <v>169</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C61" s="3">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="3">
-        <v>4</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="3">
-        <v>7</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>177</v>
@@ -2019,16 +2065,16 @@
         <v>178</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C65" s="3">
         <v>2</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,20 +2082,54 @@
         <v>180</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E66" s="2" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>182</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>